--- a/target/test-classes/Data/Data.xlsx
+++ b/target/test-classes/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Venkata-Workspace1\myECommerceProject\src\test\java\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6484EC-8A92-448A-A5B5-4E123B3D068E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797213F1-C76D-4F66-AD2B-F4540144A4EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Password</t>
   </si>
@@ -66,7 +66,10 @@
     <t>Mobile Phone</t>
   </si>
   <si>
-    <t>Customer1055@yopmail.com</t>
+    <t/>
+  </si>
+  <si>
+    <t>Customer2041@yopmail.com</t>
   </si>
   <si>
     <t>Test1234</t>
@@ -105,7 +108,7 @@
     <t>9876543210</t>
   </si>
   <si>
-    <t>Customer1007@yopmail.com</t>
+    <t>Customer2058@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,33 +170,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +466,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,11 +476,11 @@
     <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
     <col min="7" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="4" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" style="4" width="17.42578125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -507,25 +496,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -537,43 +526,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
